--- a/Batch-11/Modules/Course Module/Course Schedule/TNGS LS Course Schedule.xlsx
+++ b/Batch-11/Modules/Course Module/Course Schedule/TNGS LS Course Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godwill.Ngwanah\tngs\AWS-Sol-Arch-02\Batch-10\Modules\Course Module\Course Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Godwill.Ngwanah\tngs\AWS-Sol-Arch-02\Batch-11\Modules\Course Module\Course Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6443483-BA72-4E8D-BC9F-0C085B077E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85B0A85-0283-4359-89A7-1AF5B3045955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A076ADCC-7415-4768-96A6-DB0615FB62A0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="27">
   <si>
     <t>Dates</t>
   </si>
@@ -102,22 +102,19 @@
     <t xml:space="preserve">Holidays </t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>NO Class this week</t>
-  </si>
-  <si>
     <t>Week 8</t>
   </si>
   <si>
     <t>Holiday</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -365,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -386,10 +383,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -398,22 +408,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,8 +732,8 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,17 +775,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>5</v>
@@ -798,20 +796,18 @@
       <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -825,15 +821,15 @@
       <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -847,15 +843,15 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
@@ -869,27 +865,27 @@
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -903,37 +899,37 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>5</v>
@@ -947,15 +943,15 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>5</v>
@@ -969,27 +965,27 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -1000,18 +996,20 @@
       <c r="G12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>5</v>
@@ -1025,15 +1023,15 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="1" t="s">
-        <v>23</v>
+      <c r="A14" s="21"/>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>5</v>
@@ -1047,15 +1045,15 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
+      <c r="A15" s="21"/>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>5</v>
@@ -1069,27 +1067,27 @@
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>5</v>
@@ -1103,15 +1101,15 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5</v>
@@ -1125,15 +1123,15 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>5</v>
@@ -1147,15 +1145,15 @@
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>5</v>
@@ -1169,27 +1167,27 @@
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -1200,20 +1198,18 @@
       <c r="G22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>25</v>
-      </c>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>5</v>
@@ -1224,18 +1220,18 @@
       <c r="G23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
@@ -1249,15 +1245,15 @@
       <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
@@ -1271,27 +1267,27 @@
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
@@ -1305,15 +1301,15 @@
       <c r="H27" s="7"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>5</v>
@@ -1327,15 +1323,15 @@
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>5</v>
@@ -1349,15 +1345,15 @@
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
@@ -1371,27 +1367,27 @@
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>5</v>
@@ -1405,15 +1401,15 @@
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>5</v>
@@ -1427,15 +1423,15 @@
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>5</v>
@@ -1449,15 +1445,15 @@
       <c r="H34" s="7"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>5</v>
@@ -1471,27 +1467,27 @@
       <c r="H35" s="7"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
       <c r="H36" s="7"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>5</v>
@@ -1505,15 +1501,15 @@
       <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
@@ -1524,18 +1520,20 @@
       <c r="G38" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="18" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>5</v>
@@ -1549,15 +1547,15 @@
       <c r="H39" s="7"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>5</v>
@@ -1571,34 +1569,34 @@
       <c r="H40" s="7"/>
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="H22:H23"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:A40"/>
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
